--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2825485.029984645</v>
+        <v>2818468.015092935</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698273.7980195112</v>
+        <v>486324.8684061525</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>298.5978988831012</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>349.0797868789228</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>340.2447877223327</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>248.8850931379793</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>103.1725566744442</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>188.7358530123306</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>138.3038958997673</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>55.33451502181178</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.65568569260648</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784704</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>152.875685890936</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>182.1181380970535</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>179.822365758362</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>88.35514589866106</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>42.07177072110323</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385025</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>59.14677836506076</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>91.50589732716503</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>144.0800242012098</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>99.58458161234707</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>6.213149383359066</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.62870505826284</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>27.92687787541448</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>102.7360985850899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>268.6356596525297</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2395.535051742363</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>2042.766396472248</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.845691314469</v>
+        <v>1669.300638211168</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.706359338657</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2179.985929774773</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2407.975480672791</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.975480672791</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>2179.985929774773</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>2179.985929774773</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362311</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>571.9594663958194</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573123</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312043</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362311</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.8207968750361</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>350.7041574627003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>350.7041574627003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>203.81420996479</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>203.81420996479</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750361</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.8207968750361</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481816</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524922</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>672.2355346894528</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>672.2355346894528</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W10" t="n">
-        <v>382.8183646524922</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X10" t="n">
-        <v>382.8183646524922</v>
+        <v>404.527629578511</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.8183646524922</v>
+        <v>404.527629578511</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,25 +5038,25 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5065,7 +5065,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5077,10 +5077,10 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>469.5954827887337</v>
       </c>
       <c r="L12" t="n">
-        <v>818.3643854923157</v>
+        <v>699.5585886570829</v>
       </c>
       <c r="M12" t="n">
-        <v>1138.699705022017</v>
+        <v>1019.893908186785</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022017</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.8929204411535</v>
+        <v>865.4928396191511</v>
       </c>
       <c r="C13" t="n">
-        <v>674.9567375132466</v>
+        <v>696.5566566912443</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>546.4400172789085</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>398.5269236965154</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>251.636976198605</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1314.958555308354</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1314.958555308354</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>1025.541385271393</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>1025.541385271393</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1025.541385271393</v>
+        <v>1047.141304449391</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,37 +5263,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>264.0657286834809</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>877.9627984403695</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M15" t="n">
-        <v>1646.330944832831</v>
+        <v>1509.99881391881</v>
       </c>
       <c r="N15" t="n">
-        <v>2079.710673976462</v>
+        <v>1854.519469556428</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.464088060424</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2811958984813</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1206.202413828453</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1206.202413828453</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>917.0737750420114</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>917.0737750420114</v>
+        <v>1409.668648438043</v>
       </c>
       <c r="W16" t="n">
-        <v>917.0737750420114</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="X16" t="n">
-        <v>917.0737750420114</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="Y16" t="n">
-        <v>696.2811958984813</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1113.47380280803</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1433.809122337732</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.559013807109</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>866.8745256012223</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>577.4573555642617</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>577.4573555642617</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L21" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N21" t="n">
-        <v>2029.138566119363</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O21" t="n">
-        <v>2277.891980203325</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2460.535457816676</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>583.5611725871966</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>583.5611725871966</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>583.5611725871966</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5946,16 +5946,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>986.0022165609664</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>986.0022165609664</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>765.2096374174363</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>2755.022026334208</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>3075.35734586391</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N24" t="n">
-        <v>3796.69111987887</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962832</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>672.4909068465488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1406.486071237534</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1182.700656027039</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>1182.700656027039</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1182.700656027039</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>893.2834859900789</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>893.2834859900789</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>672.4909068465488</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,25 +6308,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>836.4717212750119</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1353.380892576882</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1353.380892576882</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1353.380892576882</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1063.963722539922</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1063.963722539922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.1711433963917</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6448,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.726987855212</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N30" t="n">
-        <v>2029.138566119362</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2029.138566119362</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2549.43918785511</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>2626.17692130864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>3041.060966419975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>3361.396285949676</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
-        <v>3691.258913613709</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>974.6203587858422</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>974.6203587858422</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W34" t="n">
-        <v>685.2031887488815</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X34" t="n">
-        <v>685.2031887488815</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y34" t="n">
-        <v>685.2031887488815</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6955,19 +6955,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>412.607977814708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>659.373105721172</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>979.7084252508738</v>
+        <v>854.5887484936143</v>
       </c>
       <c r="N36" t="n">
-        <v>1784.120003515025</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O36" t="n">
-        <v>2145.820610447073</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1415.452932115213</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1191.667516904718</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1191.667516904718</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>936.9830286988315</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>936.9830286988315</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>708.9934778008142</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.344935273669</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2145.820610447073</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1047.001877712037</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1047.001877712037</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>819.0123268140194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>598.2197476704893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,64 +7399,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>469.3397794245873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1070.276614930102</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1874.688193194253</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188989</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>605.6774166642626</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>377.6878657662453</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1276.47550669726</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
-        <v>1679.69270477794</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>2349.1564660806</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>803.861694098789</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>803.861694098789</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>803.861694098789</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>169.8170880857274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10907,13 +10907,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.61788257244163</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>104.1192143015239</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>18.09844422524128</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>163.7824974251669</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>244.1655816774741</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>87.28718428150842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>106.4149126564382</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>77.46753685717943</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>186.6527707862303</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>245.9244939404689</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.2921049253404</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>224.2107654484135</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>183.7868997515011</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>17.60169274604766</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="L2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,37 +26426,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758081</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758431</v>
+        <v>787.7936905759185</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759308</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758696</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603603</v>
+        <v>-196104.76906036</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541839</v>
+        <v>393863.1101541838</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541838</v>
+        <v>393863.1101541849</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962587</v>
+        <v>-32366.15776934731</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075482</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672704</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672706</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075485</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746775</v>
+        <v>316370.6595149558</v>
       </c>
       <c r="K6" t="n">
-        <v>493768.46996727</v>
+        <v>492793.8787075486</v>
       </c>
       <c r="L6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.878707549</v>
       </c>
       <c r="M6" t="n">
-        <v>358967.4547334331</v>
+        <v>357992.8634737117</v>
       </c>
       <c r="N6" t="n">
-        <v>493768.4699672704</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="O6" t="n">
-        <v>493768.4699672704</v>
+        <v>492793.8787075485</v>
       </c>
       <c r="P6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.8787075488</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>29.15435958703375</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>20.65131379954624</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7942083674335</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642228</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.43825389835024</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.339074370310044</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>52.99833216735091</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.99798865115</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712403</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>230.9473592201659</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4819576312215</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28854,10 +28854,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.917517010207169e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>249.5159911824348</v>
       </c>
       <c r="L12" t="n">
-        <v>39.19479005435386</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>68.34248921961716</v>
       </c>
       <c r="N15" t="n">
-        <v>89.75663990506388</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>211.1940752348688</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,10 +32551,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32563,25 +32563,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>330.1172231204814</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.58938287488201</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>380.6193114922646</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32812,7 +32812,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33025,19 +33025,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>255.3704499243454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33046,7 +33046,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33262,10 +33262,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -33277,13 +33277,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.787635361312425</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33426,7 +33426,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
@@ -33499,13 +33499,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -33675,13 +33675,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,22 +33736,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>441.4508459632593</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>114.0880735839257</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33979,19 +33979,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>88.60834453479032</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>283.4358747230436</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34234,7 +34234,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34450,16 +34450,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.28943681117414</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34468,10 +34468,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>376.1397892206544</v>
       </c>
       <c r="L12" t="n">
-        <v>271.4807555779389</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>391.9135190475988</v>
       </c>
       <c r="N15" t="n">
-        <v>437.7573021652841</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>443.4800407584538</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>581.3832979527665</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.6848965247096</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N24" t="n">
-        <v>728.6199737524848</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36460,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N27" t="n">
-        <v>603.3711121845656</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
@@ -36694,10 +36694,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.88314901114001</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>419.0747930417517</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>765.0218757912409</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>365.3541484162108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37554,7 +37554,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>339.8744193670754</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>607.0069045510252</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>407.2900990713944</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2818468.015092935</v>
+        <v>2823407.277941966</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486324.8684061525</v>
+        <v>545699.7390289489</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>251.3808181148277</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>298.5978988831012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -788,13 +788,13 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7835007017901</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8850931379793</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>138.3038958997673</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>43.95772706122981</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>62.34212692452513</v>
       </c>
       <c r="V10" t="n">
-        <v>94.65568569260648</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>126.7955321565764</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>152.875685890936</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>83.51327189692798</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>88.35514589866106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.1537278750036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>81.21003188889082</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>107.2630541056549</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.213149383359066</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>194.957641979051</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.700798147047</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2395.535051742363</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2042.766396472248</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.300638211168</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.300638211168</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4436,10 +4436,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>198.0462038478543</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1995.909162857192</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.909162857192</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
         <v>2107.607341885688</v>
@@ -4801,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482713</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V10" t="n">
-        <v>632.5171804765284</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W10" t="n">
-        <v>632.5171804765284</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>404.527629578511</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.527629578511</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5035,34 +5035,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5123,22 +5123,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>469.5954827887337</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>699.5585886570829</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.893908186785</v>
+        <v>1214.889396603096</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824403</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>865.4928396191511</v>
+        <v>670.514436100299</v>
       </c>
       <c r="C13" t="n">
-        <v>696.5566566912443</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>546.4400172789085</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>398.5269236965154</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>251.636976198605</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5199,52 +5199,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241923</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688038</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799331</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947116</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974664</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.130855347408</v>
+        <v>898.5039869983163</v>
       </c>
       <c r="X13" t="n">
-        <v>1047.141304449391</v>
+        <v>670.514436100299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1047.141304449391</v>
+        <v>670.514436100299</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5272,25 +5272,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061688</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1509.99881391881</v>
+        <v>1524.052509796273</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.519469556428</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.6134626728254</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="C16" t="n">
-        <v>710.6134626728254</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>181.5739317602131</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>181.5739317602131</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5439,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1409.668648438043</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>1120.251478401083</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X16" t="n">
-        <v>892.2619275030652</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.2619275030652</v>
+        <v>531.3977182706323</v>
       </c>
     </row>
     <row r="17">
@@ -5512,46 +5512,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5591,13 +5591,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
         <v>1122.004430061687</v>
@@ -5606,7 +5606,7 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>237.776412546148</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5749,40 +5749,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028583</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,16 +6004,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,22 +6065,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O24" t="n">
         <v>1797.533454227377</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2595.879769628498</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,28 +6402,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6551,10 +6551,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,19 +6639,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6788,10 +6788,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O33" t="n">
         <v>1797.533454227377</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>352.4535582568376</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>352.4535582568376</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,13 +6876,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
@@ -6891,19 +6891,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1003.591713218973</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>714.1745431820127</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X34" t="n">
-        <v>486.1849922839954</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>534.1020230870773</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7025,19 +7025,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>854.5887484936143</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.000326757765</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O39" t="n">
         <v>1797.533454227377</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7432,28 +7432,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7499,10 +7499,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605665</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1128.069692924717</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7736,10 +7736,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -9014,22 +9014,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>380.2419910757797</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9485,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>370.862340184928</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849288</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,13 +9971,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>161.9478778664923</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>370.862340184928</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>370.862340184928</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>370.8623401849281</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.45128894205139</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.61788257244163</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>26.90597356734399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7824974251669</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.43092547709122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>170.9276114349372</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>41.35241891255741</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>245.9244939404689</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>30.75201340998615</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="13">
@@ -26316,43 +26316,43 @@
         <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="N2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="P2" t="n">
         <v>586543.589606563</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575822</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758313</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905757959</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758011</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-196104.76906036</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541838</v>
+        <v>393863.1101541837</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541849</v>
+        <v>393863.1101541843</v>
       </c>
       <c r="E6" t="n">
-        <v>-32366.15776934731</v>
+        <v>-31489.02563559791</v>
       </c>
       <c r="F6" t="n">
-        <v>492793.8787075482</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="G6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="H6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="I6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="J6" t="n">
-        <v>316370.6595149558</v>
+        <v>317247.7916487053</v>
       </c>
       <c r="K6" t="n">
-        <v>492793.8787075486</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="L6" t="n">
-        <v>492793.878707549</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="M6" t="n">
-        <v>357992.8634737117</v>
+        <v>358869.995607461</v>
       </c>
       <c r="N6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="O6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412987</v>
       </c>
       <c r="P6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412983</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170864</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>155.4952276268837</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>29.15435958703375</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>19.83197231642228</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>9.269126437646349</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.339074370310044</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>50.80735538553375</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>226.9689958712403</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.52067551358191</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>223.9397473174526</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4819576312215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.411472576664805e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31141,13 +31141,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>87.78329382423999</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>249.5159911824348</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>446.4811309968912</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622983</v>
@@ -32086,28 +32086,28 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>68.34248921961716</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>141.3402618185954</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32557,31 +32557,31 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>330.1172231204814</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32800,25 +32800,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540871</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33274,25 +33274,25 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33511,25 +33511,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33745,28 +33745,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>441.4508459632593</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33985,25 +33985,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34222,25 +34222,25 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34459,25 +34459,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>330.1172231204807</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279169</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>376.1397892206544</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>770.0521608248728</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556208</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>391.9135190475988</v>
+        <v>238.1079571537614</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>489.3409240788156</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>581.3832979527665</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629097</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629105</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>27.97347045216202</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>239.4656922197786</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629097</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>765.0218757912409</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629097</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629098</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>581.3832979527658</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
